--- a/Code/Results/Cases/Case_8_25/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_8_25/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.013512433286618</v>
+        <v>1.010969032368977</v>
       </c>
       <c r="D2">
-        <v>1.032598498877538</v>
+        <v>1.030149373757293</v>
       </c>
       <c r="E2">
-        <v>1.018097096488737</v>
+        <v>1.015914330334552</v>
       </c>
       <c r="F2">
-        <v>1.035944121791462</v>
+        <v>1.034040923981395</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.048363117340719</v>
+        <v>1.04704909659971</v>
       </c>
       <c r="J2">
-        <v>1.035296366704092</v>
+        <v>1.032826539211153</v>
       </c>
       <c r="K2">
-        <v>1.043621623952015</v>
+        <v>1.041204070791016</v>
       </c>
       <c r="L2">
-        <v>1.029309938380465</v>
+        <v>1.027156317624189</v>
       </c>
       <c r="M2">
-        <v>1.046924419458129</v>
+        <v>1.04504554205655</v>
       </c>
       <c r="N2">
-        <v>1.03676660629497</v>
+        <v>1.028002735114809</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.045709902422161</v>
+        <v>1.044222906072878</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.041914548238192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.040213881414227</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022962729998219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.016933990920187</v>
+        <v>1.014144127360099</v>
       </c>
       <c r="D3">
-        <v>1.034864104140317</v>
+        <v>1.032178274611223</v>
       </c>
       <c r="E3">
-        <v>1.020767752896941</v>
+        <v>1.018367978350725</v>
       </c>
       <c r="F3">
-        <v>1.038393934346157</v>
+        <v>1.036307708561755</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.049112926607386</v>
+        <v>1.047665578915519</v>
       </c>
       <c r="J3">
-        <v>1.036973427053582</v>
+        <v>1.034256497501121</v>
       </c>
       <c r="K3">
-        <v>1.045069510286507</v>
+        <v>1.04241534003743</v>
       </c>
       <c r="L3">
-        <v>1.031141627218242</v>
+        <v>1.028771110322115</v>
       </c>
       <c r="M3">
-        <v>1.048558040553533</v>
+        <v>1.0464961820874</v>
       </c>
       <c r="N3">
-        <v>1.038446048262513</v>
+        <v>1.028804470823689</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.047002793595029</v>
+        <v>1.045370983604101</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.042935666840512</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.041067416603049</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023192642642087</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.019112803675484</v>
+        <v>1.016167351844524</v>
       </c>
       <c r="D4">
-        <v>1.036311172004901</v>
+        <v>1.033475390302867</v>
       </c>
       <c r="E4">
-        <v>1.022473978419405</v>
+        <v>1.0199370476303</v>
       </c>
       <c r="F4">
-        <v>1.039960910281447</v>
+        <v>1.037758904291059</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.049583276872261</v>
+        <v>1.048051372039634</v>
       </c>
       <c r="J4">
-        <v>1.038039923549918</v>
+        <v>1.035166345545747</v>
       </c>
       <c r="K4">
-        <v>1.04599024841491</v>
+        <v>1.043185910885747</v>
       </c>
       <c r="L4">
-        <v>1.032308522796218</v>
+        <v>1.029800660564288</v>
       </c>
       <c r="M4">
-        <v>1.049599827062947</v>
+        <v>1.047422009149928</v>
       </c>
       <c r="N4">
-        <v>1.039514059306202</v>
+        <v>1.029314593332443</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.047827289956269</v>
+        <v>1.046103708375649</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.043587592612895</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.04161324782963</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023336652547276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.020023591245001</v>
+        <v>1.017013277153808</v>
       </c>
       <c r="D5">
-        <v>1.03691902269111</v>
+        <v>1.034020705466976</v>
       </c>
       <c r="E5">
-        <v>1.023188896148013</v>
+        <v>1.020594752234476</v>
       </c>
       <c r="F5">
-        <v>1.040618256093643</v>
+        <v>1.038367984398239</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.049779599196748</v>
+        <v>1.048212381512893</v>
       </c>
       <c r="J5">
-        <v>1.038486838140519</v>
+        <v>1.03554781962061</v>
       </c>
       <c r="K5">
-        <v>1.046377430021984</v>
+        <v>1.043510408336911</v>
       </c>
       <c r="L5">
-        <v>1.032797488979259</v>
+        <v>1.030232279364637</v>
       </c>
       <c r="M5">
-        <v>1.050037029855954</v>
+        <v>1.047810826343515</v>
       </c>
       <c r="N5">
-        <v>1.039961608566784</v>
+        <v>1.029528472959485</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.048173303101506</v>
+        <v>1.046411428682494</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.043868493068546</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.041850547324615</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023397232984981</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.020179705830649</v>
+        <v>1.017158130533811</v>
       </c>
       <c r="D6">
-        <v>1.03702561678015</v>
+        <v>1.034116550590894</v>
       </c>
       <c r="E6">
-        <v>1.023311959971112</v>
+        <v>1.020707879503826</v>
       </c>
       <c r="F6">
-        <v>1.040731845560755</v>
+        <v>1.038473256325618</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.049814904847983</v>
+        <v>1.048241582128396</v>
       </c>
       <c r="J6">
-        <v>1.038565200855381</v>
+        <v>1.035614825469893</v>
       </c>
       <c r="K6">
-        <v>1.046446958646329</v>
+        <v>1.043569162400736</v>
       </c>
       <c r="L6">
-        <v>1.03288262464945</v>
+        <v>1.030307456581278</v>
       </c>
       <c r="M6">
-        <v>1.050113658630437</v>
+        <v>1.047879117267366</v>
       </c>
       <c r="N6">
-        <v>1.040040082565688</v>
+        <v>1.029566040838687</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.048233948999525</v>
+        <v>1.046465475929442</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.043926354111676</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.041901670698578</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023408757408478</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.01913487051474</v>
+        <v>1.016205166258815</v>
       </c>
       <c r="D7">
-        <v>1.036332175241293</v>
+        <v>1.033507412216552</v>
       </c>
       <c r="E7">
-        <v>1.022492500308403</v>
+        <v>1.019969909820787</v>
       </c>
       <c r="F7">
-        <v>1.039979020987969</v>
+        <v>1.037786377671054</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.049592762989554</v>
+        <v>1.048068538886386</v>
       </c>
       <c r="J7">
-        <v>1.038055537558523</v>
+        <v>1.035197291162715</v>
       </c>
       <c r="K7">
-        <v>1.046008158448233</v>
+        <v>1.043214705013703</v>
       </c>
       <c r="L7">
-        <v>1.032323920158187</v>
+        <v>1.029830222458671</v>
       </c>
       <c r="M7">
-        <v>1.04961489160234</v>
+        <v>1.047446324207911</v>
       </c>
       <c r="N7">
-        <v>1.03952969548849</v>
+        <v>1.029383990653695</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.047839212409456</v>
+        <v>1.046122951965422</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.043620264632978</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.04165564105128</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023345371464907</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.014688568282118</v>
+        <v>1.012114906535227</v>
       </c>
       <c r="D8">
-        <v>1.033384146665114</v>
+        <v>1.03089287478579</v>
       </c>
       <c r="E8">
-        <v>1.019015515292018</v>
+        <v>1.016807716071309</v>
       </c>
       <c r="F8">
-        <v>1.036787486139556</v>
+        <v>1.034854387552933</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.048628178637498</v>
+        <v>1.047295222026436</v>
       </c>
       <c r="J8">
-        <v>1.035879100037693</v>
+        <v>1.033377424180571</v>
       </c>
       <c r="K8">
-        <v>1.044130127215078</v>
+        <v>1.041670030972092</v>
       </c>
       <c r="L8">
-        <v>1.029943925438384</v>
+        <v>1.027764729246595</v>
       </c>
       <c r="M8">
-        <v>1.047491178991748</v>
+        <v>1.045582057330995</v>
       </c>
       <c r="N8">
-        <v>1.03735016717674</v>
+        <v>1.028469348384736</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.046158451244428</v>
+        <v>1.044647519638623</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.042296897144589</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.040568444366402</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.02305905593039</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.006557859692071</v>
+        <v>1.004588999140333</v>
       </c>
       <c r="D9">
-        <v>1.028019135387836</v>
+        <v>1.026102681584804</v>
       </c>
       <c r="E9">
-        <v>1.012700684470207</v>
+        <v>1.011024609995024</v>
       </c>
       <c r="F9">
-        <v>1.031004320360136</v>
+        <v>1.029517324780711</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.046801765488256</v>
+        <v>1.045792979036376</v>
       </c>
       <c r="J9">
-        <v>1.031881149529348</v>
+        <v>1.029980742277626</v>
       </c>
       <c r="K9">
-        <v>1.040673408980141</v>
+        <v>1.038785995263929</v>
       </c>
       <c r="L9">
-        <v>1.025591008727288</v>
+        <v>1.023941317507239</v>
       </c>
       <c r="M9">
-        <v>1.043613633071093</v>
+        <v>1.042148992137253</v>
       </c>
       <c r="N9">
-        <v>1.033346539120102</v>
+        <v>1.026583941655885</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.043089651051248</v>
+        <v>1.041930489173831</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.039849630464017</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.038525809146019</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022498413898141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.000988380857716</v>
+        <v>0.9995200024261326</v>
       </c>
       <c r="D10">
-        <v>1.024396459216919</v>
+        <v>1.022933222577944</v>
       </c>
       <c r="E10">
-        <v>1.008414587118353</v>
+        <v>1.007179606719837</v>
       </c>
       <c r="F10">
-        <v>1.027163840520168</v>
+        <v>1.026033785284139</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.045537313264305</v>
+        <v>1.044790441312607</v>
       </c>
       <c r="J10">
-        <v>1.029162839055652</v>
+        <v>1.027752677461047</v>
       </c>
       <c r="K10">
-        <v>1.038338769539008</v>
+        <v>1.036900398550236</v>
       </c>
       <c r="L10">
-        <v>1.022633557647405</v>
+        <v>1.021420429934935</v>
       </c>
       <c r="M10">
-        <v>1.041059372909249</v>
+        <v>1.039948380031629</v>
       </c>
       <c r="N10">
-        <v>1.030624368333739</v>
+        <v>1.025566858371049</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.041119403869284</v>
+        <v>1.040240182238115</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.038215653681957</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.037211020804746</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022134969603016</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9989504507806281</v>
+        <v>0.9977485016489295</v>
       </c>
       <c r="D11">
-        <v>1.023276928306547</v>
+        <v>1.02203000160913</v>
       </c>
       <c r="E11">
-        <v>1.006910872906868</v>
+        <v>1.005912466828625</v>
       </c>
       <c r="F11">
-        <v>1.026408375294893</v>
+        <v>1.025455205699764</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.045234934227511</v>
+        <v>1.044620173481893</v>
       </c>
       <c r="J11">
-        <v>1.02836695750432</v>
+        <v>1.027215246479062</v>
       </c>
       <c r="K11">
-        <v>1.03777283272612</v>
+        <v>1.036548088605908</v>
       </c>
       <c r="L11">
-        <v>1.02170362659007</v>
+        <v>1.020723737444806</v>
       </c>
       <c r="M11">
-        <v>1.040848879979068</v>
+        <v>1.039912526852818</v>
       </c>
       <c r="N11">
-        <v>1.029827356539315</v>
+        <v>1.025708628050858</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.041387571054046</v>
+        <v>1.040646927110312</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.037848234414777</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.036997880015419</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022125956153272</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9983356177613145</v>
+        <v>0.9972081827542409</v>
       </c>
       <c r="D12">
-        <v>1.023021118656113</v>
+        <v>1.021830508331406</v>
       </c>
       <c r="E12">
-        <v>1.006483766662082</v>
+        <v>1.005550576335889</v>
       </c>
       <c r="F12">
-        <v>1.026455781159916</v>
+        <v>1.025550145629766</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.045212623278884</v>
+        <v>1.044631984000723</v>
       </c>
       <c r="J12">
-        <v>1.028210584648683</v>
+        <v>1.027131169080142</v>
       </c>
       <c r="K12">
-        <v>1.037720172502709</v>
+        <v>1.036551089907475</v>
       </c>
       <c r="L12">
-        <v>1.021487793308189</v>
+        <v>1.020572203102952</v>
       </c>
       <c r="M12">
-        <v>1.041093095441543</v>
+        <v>1.040203686954879</v>
       </c>
       <c r="N12">
-        <v>1.029670761616287</v>
+        <v>1.025853995938777</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.041906076280631</v>
+        <v>1.041202801743581</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.037811002204575</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.03700000197754</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022165416818545</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9987878838930415</v>
+        <v>0.9975746654303859</v>
       </c>
       <c r="D13">
-        <v>1.023429793518765</v>
+        <v>1.022163196789625</v>
       </c>
       <c r="E13">
-        <v>1.006866226706158</v>
+        <v>1.005855118042013</v>
       </c>
       <c r="F13">
-        <v>1.027147959610441</v>
+        <v>1.026182808020648</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.045417246217585</v>
+        <v>1.044789185811949</v>
       </c>
       <c r="J13">
-        <v>1.028550822337543</v>
+        <v>1.027389027692208</v>
       </c>
       <c r="K13">
-        <v>1.038078897971355</v>
+        <v>1.036835104935958</v>
       </c>
       <c r="L13">
-        <v>1.021819456263281</v>
+        <v>1.020827336351105</v>
       </c>
       <c r="M13">
-        <v>1.041730544215051</v>
+        <v>1.040782599524028</v>
       </c>
       <c r="N13">
-        <v>1.03001148248169</v>
+        <v>1.025956069191778</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.042685935975269</v>
+        <v>1.041936563003428</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.038062148276565</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.037198077899538</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022248151035869</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9995884695452739</v>
+        <v>0.9982452733512551</v>
       </c>
       <c r="D14">
-        <v>1.024017596679791</v>
+        <v>1.02264016886832</v>
       </c>
       <c r="E14">
-        <v>1.007501208191387</v>
+        <v>1.00637346535693</v>
       </c>
       <c r="F14">
-        <v>1.02792399695134</v>
+        <v>1.026870585928643</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.04566328292189</v>
+        <v>1.044966852353103</v>
       </c>
       <c r="J14">
-        <v>1.029014057234876</v>
+        <v>1.027726992319391</v>
       </c>
       <c r="K14">
-        <v>1.038516752298709</v>
+        <v>1.037163818595068</v>
       </c>
       <c r="L14">
-        <v>1.022299820888589</v>
+        <v>1.021192992633037</v>
       </c>
       <c r="M14">
-        <v>1.04235414980928</v>
+        <v>1.041319279242833</v>
       </c>
       <c r="N14">
-        <v>1.030475375225711</v>
+        <v>1.026010578085581</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.043351733120679</v>
+        <v>1.042533753174934</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.038373142075596</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.037432041485556</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022326831241339</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.000020897149174</v>
+        <v>0.9986125061527438</v>
       </c>
       <c r="D15">
-        <v>1.024313989478587</v>
+        <v>1.022881750045144</v>
       </c>
       <c r="E15">
-        <v>1.007837273283919</v>
+        <v>1.006651404937714</v>
       </c>
       <c r="F15">
-        <v>1.028269846948629</v>
+        <v>1.027172508798007</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.045777204403701</v>
+        <v>1.045047241134805</v>
       </c>
       <c r="J15">
-        <v>1.029241723175897</v>
+        <v>1.0278916815904</v>
       </c>
       <c r="K15">
-        <v>1.038722033314394</v>
+        <v>1.037315071788862</v>
       </c>
       <c r="L15">
-        <v>1.022541773352457</v>
+        <v>1.021377729537241</v>
       </c>
       <c r="M15">
-        <v>1.042608546732044</v>
+        <v>1.04153037498733</v>
       </c>
       <c r="N15">
-        <v>1.030703364478483</v>
+        <v>1.026023024722458</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.043590249324334</v>
+        <v>1.042738065742497</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.038524127666026</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.037545401434479</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.02235872623288</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.002289226603851</v>
+        <v>1.000574551926132</v>
       </c>
       <c r="D16">
-        <v>1.025772885497777</v>
+        <v>1.024084189247396</v>
       </c>
       <c r="E16">
-        <v>1.009570782311087</v>
+        <v>1.00811365306374</v>
       </c>
       <c r="F16">
-        <v>1.029794945222571</v>
+        <v>1.028491411872605</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.0462871850301</v>
+        <v>1.045402467440665</v>
       </c>
       <c r="J16">
-        <v>1.030335816246659</v>
+        <v>1.028688680383336</v>
       </c>
       <c r="K16">
-        <v>1.039656530181748</v>
+        <v>1.037996356201472</v>
       </c>
       <c r="L16">
-        <v>1.023733180482491</v>
+        <v>1.022301690160824</v>
       </c>
       <c r="M16">
-        <v>1.043611142227165</v>
+        <v>1.042329393930135</v>
       </c>
       <c r="N16">
-        <v>1.031799011286899</v>
+        <v>1.026066696704146</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.044344084130779</v>
+        <v>1.043330965655337</v>
       </c>
       <c r="Q16">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R16">
-        <v>1.039187999176118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.038030549249435</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022479402335254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.003612706415583</v>
+        <v>1.001747461911632</v>
       </c>
       <c r="D17">
-        <v>1.026586250968677</v>
+        <v>1.024770311722218</v>
       </c>
       <c r="E17">
-        <v>1.010571597624616</v>
+        <v>1.008981793082855</v>
       </c>
       <c r="F17">
-        <v>1.030554777251043</v>
+        <v>1.029148962220964</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.046547916974184</v>
+        <v>1.045587703473255</v>
       </c>
       <c r="J17">
-        <v>1.030932758073799</v>
+        <v>1.029138652966719</v>
       </c>
       <c r="K17">
-        <v>1.040143649725702</v>
+        <v>1.038357533122386</v>
       </c>
       <c r="L17">
-        <v>1.024396773098768</v>
+        <v>1.022834150594826</v>
       </c>
       <c r="M17">
-        <v>1.04404747185375</v>
+        <v>1.042664504366317</v>
       </c>
       <c r="N17">
-        <v>1.032396800839904</v>
+        <v>1.026131669963497</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.044560289821715</v>
+        <v>1.043467057409269</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.039534986047618</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.038288742782548</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022533189606499</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.004234141093167</v>
+        <v>1.002318656621394</v>
       </c>
       <c r="D18">
-        <v>1.026894627424479</v>
+        <v>1.025037081031547</v>
       </c>
       <c r="E18">
-        <v>1.011020060288201</v>
+        <v>1.00938660092514</v>
       </c>
       <c r="F18">
-        <v>1.030674823726702</v>
+        <v>1.029234795519323</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.046606295609717</v>
+        <v>1.045622249013314</v>
       </c>
       <c r="J18">
-        <v>1.031138136525338</v>
+        <v>1.029294353181573</v>
       </c>
       <c r="K18">
-        <v>1.040264729440098</v>
+        <v>1.038437197107661</v>
       </c>
       <c r="L18">
-        <v>1.024651246237672</v>
+        <v>1.023045252849331</v>
       </c>
       <c r="M18">
-        <v>1.043984273980033</v>
+        <v>1.042567283090105</v>
       </c>
       <c r="N18">
-        <v>1.032602470952401</v>
+        <v>1.026136890601058</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.044273369387303</v>
+        <v>1.04315300927134</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.039609007648046</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.038332337341236</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022522073829442</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.004229545117889</v>
+        <v>1.002339998985637</v>
       </c>
       <c r="D19">
-        <v>1.02675892219374</v>
+        <v>1.024927036258977</v>
       </c>
       <c r="E19">
-        <v>1.010977244809222</v>
+        <v>1.009367518644034</v>
       </c>
       <c r="F19">
-        <v>1.030217326327119</v>
+        <v>1.028795989231839</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.046491200388649</v>
+        <v>1.045523055961391</v>
       </c>
       <c r="J19">
-        <v>1.031000013278853</v>
+        <v>1.029180782418655</v>
       </c>
       <c r="K19">
-        <v>1.040069056639929</v>
+        <v>1.038266621461122</v>
       </c>
       <c r="L19">
-        <v>1.024545607339439</v>
+        <v>1.022962805312508</v>
       </c>
       <c r="M19">
-        <v>1.043472226731281</v>
+        <v>1.042073532144715</v>
       </c>
       <c r="N19">
-        <v>1.032464151555063</v>
+        <v>1.026050096854473</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.043544086117569</v>
+        <v>1.042437832816554</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.0394770295958</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.038218735034922</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022454905542563</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.002456612253219</v>
+        <v>1.000803156325406</v>
       </c>
       <c r="D20">
-        <v>1.025366369673827</v>
+        <v>1.023745808228471</v>
       </c>
       <c r="E20">
-        <v>1.009545960486081</v>
+        <v>1.00814636622784</v>
       </c>
       <c r="F20">
-        <v>1.028183182144965</v>
+        <v>1.026926980016516</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.045885877532589</v>
+        <v>1.045043849020388</v>
       </c>
       <c r="J20">
-        <v>1.029893162970437</v>
+        <v>1.028303152712325</v>
       </c>
       <c r="K20">
-        <v>1.038977379759357</v>
+        <v>1.037383583190409</v>
       </c>
       <c r="L20">
-        <v>1.023423007126094</v>
+        <v>1.022047468278829</v>
       </c>
       <c r="M20">
-        <v>1.041747928408806</v>
+        <v>1.04051231804381</v>
       </c>
       <c r="N20">
-        <v>1.031355729392252</v>
+        <v>1.025680734139293</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.041653805588877</v>
+        <v>1.040675951920928</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.038709083685087</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.037598695657385</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022227999081385</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9982016600337154</v>
+        <v>0.9971827126795363</v>
       </c>
       <c r="D21">
-        <v>1.022567341464287</v>
+        <v>1.021477532882874</v>
       </c>
       <c r="E21">
-        <v>1.006272178375309</v>
+        <v>1.005439692437513</v>
       </c>
       <c r="F21">
-        <v>1.02513778137155</v>
+        <v>1.024309137774951</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.044874175684017</v>
+        <v>1.044358427039213</v>
       </c>
       <c r="J21">
-        <v>1.027774761996673</v>
+        <v>1.026798697594491</v>
       </c>
       <c r="K21">
-        <v>1.037133420937613</v>
+        <v>1.036063119688386</v>
       </c>
       <c r="L21">
-        <v>1.021135688825455</v>
+        <v>1.020318735860762</v>
       </c>
       <c r="M21">
-        <v>1.039658063710442</v>
+        <v>1.038844151345315</v>
       </c>
       <c r="N21">
-        <v>1.029234320046121</v>
+        <v>1.025645492065031</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.039959087549829</v>
+        <v>1.039314929711572</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.037408558704256</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.036668621691452</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021985311646732</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9954939695127289</v>
+        <v>0.9948631342247444</v>
       </c>
       <c r="D22">
-        <v>1.020798312329602</v>
+        <v>1.020036014346119</v>
       </c>
       <c r="E22">
-        <v>1.004198210106086</v>
+        <v>1.003713211208664</v>
       </c>
       <c r="F22">
-        <v>1.023247217991131</v>
+        <v>1.022682092633912</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.044228921122615</v>
+        <v>1.043914347643178</v>
       </c>
       <c r="J22">
-        <v>1.026433218702022</v>
+        <v>1.025830456956727</v>
       </c>
       <c r="K22">
-        <v>1.035968711549808</v>
+        <v>1.035220735984578</v>
       </c>
       <c r="L22">
-        <v>1.019686955895607</v>
+        <v>1.019211465816692</v>
       </c>
       <c r="M22">
-        <v>1.038371794426825</v>
+        <v>1.037817218010971</v>
       </c>
       <c r="N22">
-        <v>1.027890871606115</v>
+        <v>1.025573888927182</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.038941090167831</v>
+        <v>1.03850217903153</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.036571603800603</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.036058251951916</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021829717563649</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9969245248661258</v>
+        <v>0.9960635035977896</v>
       </c>
       <c r="D23">
-        <v>1.021726729545432</v>
+        <v>1.020772500992234</v>
       </c>
       <c r="E23">
-        <v>1.005291862247818</v>
+        <v>1.004600010194496</v>
       </c>
       <c r="F23">
-        <v>1.024243157295517</v>
+        <v>1.023523020761584</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.044566289991893</v>
+        <v>1.044132386356908</v>
       </c>
       <c r="J23">
-        <v>1.027137677960648</v>
+        <v>1.026313866342642</v>
       </c>
       <c r="K23">
-        <v>1.036576583397008</v>
+        <v>1.035639832965755</v>
       </c>
       <c r="L23">
-        <v>1.020448810738171</v>
+        <v>1.019770174753464</v>
       </c>
       <c r="M23">
-        <v>1.039047122218522</v>
+        <v>1.038340087916539</v>
       </c>
       <c r="N23">
-        <v>1.028596331277691</v>
+        <v>1.025525506562876</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.039475567795616</v>
+        <v>1.038915996535934</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.036991789941322</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.036344021311677</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021902625468026</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.00247133759023</v>
+        <v>1.000819280286105</v>
       </c>
       <c r="D24">
-        <v>1.025348130921717</v>
+        <v>1.023729018831309</v>
       </c>
       <c r="E24">
-        <v>1.009549926298496</v>
+        <v>1.008151648882707</v>
       </c>
       <c r="F24">
-        <v>1.028126903390582</v>
+        <v>1.026871679529314</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.045866868932036</v>
+        <v>1.045025854139741</v>
       </c>
       <c r="J24">
-        <v>1.029874586168482</v>
+        <v>1.028285829120125</v>
       </c>
       <c r="K24">
-        <v>1.038944262267648</v>
+        <v>1.037351858056663</v>
       </c>
       <c r="L24">
-        <v>1.02341138471383</v>
+        <v>1.02203710888288</v>
       </c>
       <c r="M24">
-        <v>1.041677449831579</v>
+        <v>1.040442778247877</v>
       </c>
       <c r="N24">
-        <v>1.031337126209107</v>
+        <v>1.025663097529194</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.041557295697442</v>
+        <v>1.040580136691263</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.038658367011185</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.037546267528832</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022214906486688</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.008710509422013</v>
+        <v>1.00655699268593</v>
       </c>
       <c r="D25">
-        <v>1.029444895810307</v>
+        <v>1.027359176829706</v>
       </c>
       <c r="E25">
-        <v>1.014369179374312</v>
+        <v>1.012530260172007</v>
       </c>
       <c r="F25">
-        <v>1.032532034965825</v>
+        <v>1.030912315490496</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.047298931362527</v>
+        <v>1.046192653689804</v>
       </c>
       <c r="J25">
-        <v>1.032948244484909</v>
+        <v>1.030865685062703</v>
       </c>
       <c r="K25">
-        <v>1.041602688220674</v>
+        <v>1.039547119964298</v>
       </c>
       <c r="L25">
-        <v>1.026748453545033</v>
+        <v>1.024937124916972</v>
       </c>
       <c r="M25">
-        <v>1.044645483353944</v>
+        <v>1.043048987776268</v>
       </c>
       <c r="N25">
-        <v>1.034415149472897</v>
+        <v>1.027014273371393</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.043906287988567</v>
+        <v>1.042642773619435</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.040535145954558</v>
+        <v>1.039095264346648</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022648660227252</v>
       </c>
     </row>
   </sheetData>
